--- a/resources/tools/wordlist_E-J/lessons/lesson-23.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-23.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,492 +436,492 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to take (an examination, interview, etc.)</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>受ける|うける</t>
+          <t>思い出|おもいで</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to change</t>
+          <t>trip to a foreign country</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>換える|かえる</t>
+          <t>海外旅行|かいがいりょこう</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to answer</t>
+          <t>body</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>答える|こたえる</t>
+          <t>体|からだ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(something/someone) separates; parts from</t>
+          <t>socks</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>離れる|はなれる</t>
+          <t>靴下|くつした</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to look... (facial expression)</t>
+          <t>international call</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>～顔をする|～かおをする</t>
+          <t>国際電話|こくさいでんわ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to be disappointed</t>
+          <t>society</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>がっかりする</t>
+          <t>社会|しゃかい</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to be tolerant/patient</t>
+          <t>tuition</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>我慢する|がまんする</t>
+          <t>授業料|じゅぎょうりょう</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to take care of...</t>
+          <t>elementary school</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>世話をする|せわをする</t>
+          <t>小学校|しょうがっこう</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to sympathize</t>
+          <t>election</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>同情する|どうじょうする</t>
+          <t>選挙|せんきょ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(tire) goes flat</t>
+          <t>software</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>パンクする</t>
+          <t>ソフト</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(something/someone) comes back</t>
+          <t>tire</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>戻ってくる|もどってくる</t>
+          <t>タイヤ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>to win a championship</t>
+          <t>free of charge</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>優勝する|ゆうしょうする</t>
+          <t>ただ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tire</t>
+          <t>place</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>タイヤ</t>
+          <t>場所|ばしょ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>free of charge</t>
+          <t>villa; vacation home</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ただ</t>
+          <t>別荘|べっそう</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>bonus</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>場所|ばしょ</t>
+          <t>ボーナス</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>villa; vacation home</t>
+          <t>Bon dance (traditional Japanese dance)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>別荘|べっそう</t>
+          <t>盆踊り|ぼんおどり</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bonus</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ボーナス</t>
+          <t>面接|めんせつ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bon dance (traditional Japanese dance)</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>盆踊り|ぼんおどり</t>
+          <t>夕食|ゆうしょく</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>ideal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>面接|めんせつ</t>
+          <t>理想|りそう</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>looking after a house during someone's absence</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>夕食|ゆうしょく</t>
+          <t>留守番|るすばん</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ideal</t>
+          <t>(food is) terrible</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>理想|りそう</t>
+          <t>まずい</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>looking after a house during someone's absence</t>
+          <t>the rain stops</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>留守番|るすばん</t>
+          <t>雨がやむ|あめがやむ</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>(someone) is gone; to disappear</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>思い出|おもいで</t>
+          <t>いなくなる</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>trip to a foreign country</t>
+          <t>to be in someone's care</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>海外旅行|かいがいりょこう</t>
+          <t>お世話になる|おせわになる</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>to have a stomachache</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>体|からだ</t>
+          <t>おなかをこわす</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>socks</t>
+          <t>to find something agreeable</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>靴下|くつした</t>
+          <t>気に入る|きにいる</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>international call</t>
+          <t>to be difficult; wrong</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>国際電話|こくさいでんわ</t>
+          <t>違う|ちがう</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>to be lost; to disappear</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>社会|しゃかい</t>
+          <t>なくなる</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tuition</t>
+          <t>to talk behind someone's back</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>授業料|じゅぎょうりょう</t>
+          <t>悪口を言う|わるぐちをいう</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>elementary school</t>
+          <t>to take (an examination, interview, etc.)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>小学校|しょうがっこう</t>
+          <t>受ける|うける</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>election</t>
+          <t>to change</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>選挙|せんきょ</t>
+          <t>換える|かえる</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>to answer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ソフト</t>
+          <t>答える|こたえる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(food is) terrible</t>
+          <t>(something/someone) separates; parts from</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>まずい</t>
+          <t>離れる|はなれる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>the rain stops</t>
+          <t>to look... (facial expression)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>雨がやむ|あめがやむ</t>
+          <t>～顔をする|～かおをする</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>(someone) is gone; to disappear</t>
+          <t>to be disappointed</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>いなくなる</t>
+          <t>がっかりする</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>to be in someone's care</t>
+          <t>to be tolerant/patient</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>お世話になる|おせわになる</t>
+          <t>我慢する|がまんする</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>to have a stomachache</t>
+          <t>to take care of...</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>おなかをこわす</t>
+          <t>世話をする|せわをする</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>to find something agreeable</t>
+          <t>to sympathize</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>気に入る|きにいる</t>
+          <t>同情する|どうじょうする</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>to be difficult; wrong</t>
+          <t>(tire) goes flat</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>違う|ちがう</t>
+          <t>パンクする</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to be lost; to disappear</t>
+          <t>(something/someone) comes back</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>なくなる</t>
+          <t>戻ってくる|もどってくる</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to talk behind someone's back</t>
+          <t>to win a championship</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>悪口を言う|わるぐちをいう</t>
+          <t>優勝する|ゆうしょうする</t>
         </is>
       </c>
     </row>
@@ -944,760 +1012,760 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>to compare</t>
+          <t>face</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>比べる|くらべる</t>
+          <t>顔|かお</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>complexion</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>比較|ひかく</t>
+          <t>顔色|かおいろ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>smiling face</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>比例|ひれい</t>
+          <t>笑顔|えがお</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>washing one's face</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>対比|たいひ</t>
+          <t>洗顔|せんがん</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>figure of speech</t>
+          <t>expression</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>比喩|ひゆ</t>
+          <t>表情|ひょうじょう</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>文化|ぶんか</t>
+          <t>友情|ゆうじょう</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>chemistry</t>
+          <t>information</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>化学|かがく</t>
+          <t>情報|じょうほう</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>assimilation</t>
+          <t>mercy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>同化|どうか</t>
+          <t>情け|なさけ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>goblin; ghost</t>
+          <t>to get angry</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>お化け|おばけ</t>
+          <t>怒る|おこる</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>makeup</t>
+          <t>anger; rage</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>化粧|けしょう</t>
+          <t>怒り|いかり</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>human emotions</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>違う|ちがう</t>
+          <t>喜怒哀楽|きどあいらく</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>to make a mistake</t>
+          <t>strange</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>間違える|まちがえる</t>
+          <t>変な|へんな</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>illegal</t>
+          <t>tough; hectic</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>違法|いほう</t>
+          <t>大変な|たいへんな</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>violation</t>
+          <t>change</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>違反|いはん</t>
+          <t>変化|へんか</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>eccentric person</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>結果|けっか</t>
+          <t>変人|へんじん</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>fruit juice</t>
+          <t>to change something</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>果汁|かじゅう</t>
+          <t>変える|かえる</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>効果|こうか</t>
+          <t>相手|あいて</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>to use up</t>
+          <t>prime minister</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>使い果たす|つかいはたす</t>
+          <t>首相|しゅしょう</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>fruit</t>
+          <t>consultation</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>果物|くだもの</t>
+          <t>相談|そうだん</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>emotion</t>
+          <t>mutual</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>感情|かんじょう</t>
+          <t>相互の|そうごの</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>to be moved</t>
+          <t>side</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>感動する|かんどうする</t>
+          <t>横|よこ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>to feel</t>
+          <t>horizontal writing</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>感じる|かんじる</t>
+          <t>横書き|よこがき</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>gratitude</t>
+          <t>grand champion of sumo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>感謝|かんしゃ</t>
+          <t>横綱|よこづな</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>impression</t>
+          <t>to traverse</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>感想|かんそう</t>
+          <t>横断する|おうだんする</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>to answer</t>
+          <t>to compare</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>答える|こたえる</t>
+          <t>比べる|くらべる</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>答え／答|こたえ</t>
+          <t>比較|ひかく</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>reply; answer</t>
+          <t>proportion</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>回答|かいとう</t>
+          <t>比例|ひれい</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>examination paper</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>答案|とうあん</t>
+          <t>対比|たいひ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>face</t>
+          <t>figure of speech</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>顔|かお</t>
+          <t>比喩|ひゆ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>complexion</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>顔色|かおいろ</t>
+          <t>文化|ぶんか</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>smiling face</t>
+          <t>chemistry</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>笑顔|えがお</t>
+          <t>化学|かがく</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>washing one's face</t>
+          <t>assimilation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>洗顔|せんがん</t>
+          <t>同化|どうか</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>expression</t>
+          <t>goblin; ghost</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>表情|ひょうじょう</t>
+          <t>お化け|おばけ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>friendship</t>
+          <t>makeup</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>友情|ゆうじょう</t>
+          <t>化粧|けしょう</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>different</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>情報|じょうほう</t>
+          <t>違う|ちがう</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mercy</t>
+          <t>to make a mistake</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>情け|なさけ</t>
+          <t>間違える|まちがえる</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>to get angry</t>
+          <t>illegal</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>怒る|おこる</t>
+          <t>違法|いほう</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>anger; rage</t>
+          <t>violation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>怒り|いかり</t>
+          <t>違反|いはん</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>human emotions</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>喜怒哀楽|きどあいらく</t>
+          <t>悲しい|かなしい</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>tragedy</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>悲しい|かなしい</t>
+          <t>悲劇|ひげき</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>tragedy</t>
+          <t>miserable</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>悲劇|ひげき</t>
+          <t>悲惨な|ひさんな</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>miserable</t>
+          <t>to grieve</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>悲惨な|ひさんな</t>
+          <t>悲しむ|かなしむ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>to grieve</t>
+          <t>survey; research</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>悲しむ|かなしむ</t>
+          <t>調査|ちょうさ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>survey; research</t>
+          <t>to look into</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>調査|ちょうさ</t>
+          <t>調べる|しらべる</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>to look into</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>調べる|しらべる</t>
+          <t>調子|ちょうし</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>to emphasize</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>調子|ちょうし</t>
+          <t>強調する|きょうちょうする</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>to emphasize</t>
+          <t>inspection</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>強調する|きょうちょうする</t>
+          <t>検査|けんさ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>inspection</t>
+          <t>screening</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>検査|けんさ</t>
+          <t>審査|しんさ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>screening</t>
+          <t>criminal investigation</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>審査|しんさ</t>
+          <t>捜査|そうさ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>criminal investigation</t>
+          <t>result</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>捜査|そうさ</t>
+          <t>結果|けっか</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>strange</t>
+          <t>fruit juice</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>変な|へんな</t>
+          <t>果汁|かじゅう</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>tough; hectic</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>大変な|たいへんな</t>
+          <t>効果|こうか</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>to use up</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>変化|へんか</t>
+          <t>使い果たす|つかいはたす</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>eccentric person</t>
+          <t>fruit</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>変人|へんじん</t>
+          <t>果物|くだもの</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>to change something</t>
+          <t>emotion</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>変える|かえる</t>
+          <t>感情|かんじょう</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>to be moved</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>相手|あいて</t>
+          <t>感動する|かんどうする</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>prime minister</t>
+          <t>to feel</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>首相|しゅしょう</t>
+          <t>感じる|かんじる</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>consultation</t>
+          <t>gratitude</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>相談|そうだん</t>
+          <t>感謝|かんしゃ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>mutual</t>
+          <t>impression</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>相互の|そうごの</t>
+          <t>感想|かんそう</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>side</t>
+          <t>to answer</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>横|よこ</t>
+          <t>答える|こたえる</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>horizontal writing</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>横書き|よこがき</t>
+          <t>答え／答|こたえ</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>grand champion of sumo</t>
+          <t>reply; answer</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>横綱|よこづな</t>
+          <t>回答|かいとう</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>to traverse</t>
+          <t>examination paper</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>横断する|おうだんする</t>
+          <t>答案|とうあん</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-23.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-23.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1766,6 +1766,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-23.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-23.xlsx
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>to be difficult; wrong</t>
+          <t>to be different; wrong</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
